--- a/Common/Excel/Datas/__tables__.xlsx
+++ b/Common/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20231" windowHeight="8580"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>item.xlsx</t>
+  </si>
+  <si>
+    <t>Card.TbCard</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>card.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1057,20 +1066,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="10.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1187,6 +1196,20 @@
       </c>
       <c r="E4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:5">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Common/Excel/Datas/__tables__.xlsx
+++ b/Common/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>item.xlsx</t>
   </si>
   <si>
-    <t>Card.TbCard</t>
+    <t>Cards.TbCard</t>
   </si>
   <si>
     <t>Card</t>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>

--- a/Common/Excel/Datas/__tables__.xlsx
+++ b/Common/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="22185" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>

--- a/Common/Excel/Datas/__tables__.xlsx
+++ b/Common/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="12390"/>
+    <workbookView windowWidth="13875" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>card.xlsx</t>
+  </si>
+  <si>
+    <t>Cards.TbCardAttrs</t>
+  </si>
+  <si>
+    <t>CardAttrs</t>
+  </si>
+  <si>
+    <t>card_attrs.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
@@ -1212,6 +1221,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
